--- a/public/wjdc_all.xlsx
+++ b/public/wjdc_all.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -47,46 +47,40 @@
     <t>问题2</t>
   </si>
   <si>
-    <t>问题3</t>
-  </si>
-  <si>
-    <t>问题4</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>1997-05-22</t>
-  </si>
-  <si>
-    <t>技术部</t>
-  </si>
-  <si>
-    <t>测试问卷</t>
-  </si>
-  <si>
-    <t>测试量表</t>
-  </si>
-  <si>
-    <t>测试题1</t>
-  </si>
-  <si>
-    <t>测试多选题</t>
-  </si>
-  <si>
-    <t>问答题</t>
-  </si>
-  <si>
-    <t>测试题</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>销售</t>
+    <t>妹妹</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>调查3</t>
+  </si>
+  <si>
+    <t>一般自我效能感量表及说明</t>
+  </si>
+  <si>
+    <t>一般自我效能感量表及说明 GSES</t>
+  </si>
+  <si>
+    <t>询盘广告</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>明明</t>
+  </si>
+  <si>
+    <t>么么</t>
+  </si>
+  <si>
+    <t>7.24年</t>
+  </si>
+  <si>
+    <t>宝宝</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,24 +428,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="5.856" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,105 +475,131 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>3731649467</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
-        <v>3</v>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>2136496764</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J7" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
